--- a/Supplementary_tables/supp.table7.xlsx
+++ b/Supplementary_tables/supp.table7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sloan/Documents/ColoradoState/projects/tRNAs/Arabidopsis_YAMAT_MS/20190818/Figures.v3/Supplementary_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/Arabidopsis_YAMAT_01202018/Manuscript_prep/RNA_Biology_submission/RR/Supp.figures/Supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB38C3-6BD8-354C-8D53-3F4818EA815C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BABA34-51C2-854C-9273-A761F702A456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="480" windowWidth="25040" windowHeight="14020" xr2:uid="{CB7E5C99-4FC1-6246-BD64-F2F00873B877}"/>
+    <workbookView xWindow="560" yWindow="480" windowWidth="25040" windowHeight="14020" xr2:uid="{CB7E5C99-4FC1-6246-BD64-F2F00873B877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ED702C-C1FE-3945-81CA-EF4DF269125A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,65 +481,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
